--- a/gkos_pebble_BOM.xlsx
+++ b/gkos_pebble_BOM.xlsx
@@ -2076,7 +2076,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="1" horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25196850393700787" right="0.25196850393700787" top="0.25196850393700787" bottom="0.25196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="90" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="98" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>